--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_11_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_11_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>22211.00502235824</v>
+        <v>14566.94316832812</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33937088.13219457</v>
+        <v>33937088.13219458</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10494200.71426642</v>
+        <v>10494200.71426641</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3650649.968540961</v>
+        <v>3650649.968540962</v>
       </c>
     </row>
     <row r="11">
@@ -1144,13 +1144,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>119.0839105424602</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>104.8891084057989</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>119.0839105424624</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1186,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>104.8891084058008</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>119.0839105424624</v>
       </c>
       <c r="V8" t="n">
-        <v>119.0839105424602</v>
+        <v>119.0839105424624</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>119.0839105424602</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1220,13 +1220,13 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>84.32851138425291</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1265,19 +1265,19 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>104.8891084057989</v>
+        <v>46.46529703769441</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>119.0839105424602</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>119.0839105424602</v>
+        <v>119.0839105424624</v>
       </c>
       <c r="X9" t="n">
-        <v>119.0839105424602</v>
+        <v>119.0839105424624</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1296,13 +1296,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>119.0839105424602</v>
+        <v>91.32747982963681</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>119.0839105424624</v>
       </c>
       <c r="F10" t="n">
-        <v>119.0839105424602</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>13.56162857616397</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>119.0839105424624</v>
       </c>
       <c r="T10" t="n">
-        <v>104.8891084057989</v>
+        <v>119.0839105424624</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>119.0839105424602</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1372,22 +1372,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>342.881375625476</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>157.4024974626091</v>
       </c>
       <c r="G11" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1533,13 +1533,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>118.3474735769335</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>54.79104284032307</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>204.8426041147492</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>216.4992341371558</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1703,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H15" t="n">
-        <v>31.62322353306971</v>
+        <v>31.62322353306972</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1767,13 +1767,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>128.5102340545847</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
@@ -1785,7 +1785,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T16" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>275.6027656317444</v>
@@ -1827,13 +1827,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>23.00363867449979</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1846,16 +1846,16 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>118.8995913862113</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>123.0555438163702</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
         <v>395.5076644073176</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T17" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -2004,22 +2004,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>93.00664472099383</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T19" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6027656317444</v>
+        <v>18.87668342991616</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>176.1446634785941</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>265.4649627558474</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T21" t="n">
         <v>124.8306395731037</v>
@@ -2241,25 +2241,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>18.58065792654975</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>62.46433369811442</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2304,7 +2304,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>35.13097398123061</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2326,16 +2326,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H23" t="n">
-        <v>267.0243359415286</v>
+        <v>136.0829573912425</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,19 +2368,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>146.6753150960243</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2481,19 +2481,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>23.80999130968864</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H25" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>62.46433369811443</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T25" t="n">
         <v>239.8247518556274</v>
@@ -2538,10 +2538,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>40.79600181538857</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -2560,19 +2560,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>328.5107569703947</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
-        <v>156.7012890994291</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>40.06170608735098</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>44.17482029426311</v>
+        <v>44.1748202942631</v>
       </c>
       <c r="T27" t="n">
         <v>124.8306395731037</v>
@@ -2715,22 +2715,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>49.34995949258659</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>60.93349615186477</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2797,7 +2797,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>131.0174754987864</v>
       </c>
       <c r="E29" t="n">
         <v>429.4369973932878</v>
@@ -2806,10 +2806,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>156.7012890994291</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>44.17482029426311</v>
+        <v>44.1748202942631</v>
       </c>
       <c r="T30" t="n">
         <v>124.8306395731037</v>
@@ -2955,7 +2955,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2964,10 +2964,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>49.34995949258661</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T31" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
@@ -3018,7 +3018,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>111.8760931075868</v>
       </c>
     </row>
     <row r="32">
@@ -3034,16 +3034,16 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>200.6981957638118</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>143.987007526035</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.06170608735099</v>
+        <v>40.06170608735098</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3091,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
         <v>414.9510387864824</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>44.17482029426311</v>
+        <v>44.1748202942631</v>
       </c>
       <c r="T33" t="n">
         <v>124.8306395731037</v>
@@ -3192,13 +3192,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>49.34995949258659</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>60.07073011995501</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>339.7258756074274</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.061706087351</v>
+        <v>40.06170608735098</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>374.0182444745952</v>
       </c>
       <c r="X35" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>44.17482029426311</v>
+        <v>44.1748202942631</v>
       </c>
       <c r="T36" t="n">
         <v>124.8306395731037</v>
@@ -3429,16 +3429,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>151.1590933655682</v>
+        <v>49.34995949258659</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U37" t="n">
         <v>275.6027656317444</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>40.06170608735098</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>77.18157152763281</v>
       </c>
       <c r="Y38" t="n">
-        <v>341.8958058029945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>44.17482029426311</v>
+        <v>44.1748202942631</v>
       </c>
       <c r="T39" t="n">
         <v>124.8306395731037</v>
@@ -3663,7 +3663,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>99.88620450708545</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
@@ -3672,10 +3672,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>131.0206200144773</v>
@@ -3714,10 +3714,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U40" t="n">
-        <v>106.4438755113815</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>418.040965375873</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3751,10 +3751,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -3808,7 +3808,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>185.4571112832072</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3915,7 +3915,7 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H43" t="n">
-        <v>57.09228531058624</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>162.179212809666</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>30.67252111581802</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>355.1974040367145</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4137,22 +4137,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>114.2435844806785</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6027656317444</v>
+        <v>17.75123914303118</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>235.7620855184061</v>
+        <v>129.8134911691166</v>
       </c>
       <c r="C8" t="n">
-        <v>235.7620855184061</v>
+        <v>129.8134911691166</v>
       </c>
       <c r="D8" t="n">
-        <v>235.7620855184061</v>
+        <v>129.8134911691166</v>
       </c>
       <c r="E8" t="n">
-        <v>235.7620855184061</v>
+        <v>129.8134911691166</v>
       </c>
       <c r="F8" t="n">
-        <v>115.4753071926887</v>
+        <v>129.8134911691166</v>
       </c>
       <c r="G8" t="n">
-        <v>9.526712843396819</v>
+        <v>129.8134911691166</v>
       </c>
       <c r="H8" t="n">
-        <v>9.526712843396819</v>
+        <v>9.526712843396989</v>
       </c>
       <c r="I8" t="n">
-        <v>23.57954741585557</v>
+        <v>23.57954741585594</v>
       </c>
       <c r="J8" t="n">
-        <v>55.41632306557999</v>
+        <v>55.41632306558094</v>
       </c>
       <c r="K8" t="n">
-        <v>103.1313969318064</v>
+        <v>103.1313969318082</v>
       </c>
       <c r="L8" t="n">
-        <v>162.3261653183085</v>
+        <v>162.3261653183114</v>
       </c>
       <c r="M8" t="n">
-        <v>228.1917507590917</v>
+        <v>228.1917507590958</v>
       </c>
       <c r="N8" t="n">
-        <v>295.1231102326564</v>
+        <v>295.1231102326616</v>
       </c>
       <c r="O8" t="n">
-        <v>358.3244950336402</v>
+        <v>358.3244950336467</v>
       </c>
       <c r="P8" t="n">
-        <v>412.2654147455645</v>
+        <v>412.2654147455719</v>
       </c>
       <c r="Q8" t="n">
-        <v>452.7727990244985</v>
+        <v>452.7727990245068</v>
       </c>
       <c r="R8" t="n">
-        <v>476.3356421698409</v>
+        <v>476.3356421698495</v>
       </c>
       <c r="S8" t="n">
-        <v>476.3356421698409</v>
+        <v>476.3356421698495</v>
       </c>
       <c r="T8" t="n">
-        <v>476.3356421698409</v>
+        <v>370.3870478205557</v>
       </c>
       <c r="U8" t="n">
-        <v>476.3356421698409</v>
+        <v>250.1002694948361</v>
       </c>
       <c r="V8" t="n">
-        <v>356.0488638441235</v>
+        <v>129.8134911691166</v>
       </c>
       <c r="W8" t="n">
-        <v>356.0488638441235</v>
+        <v>129.8134911691166</v>
       </c>
       <c r="X8" t="n">
-        <v>235.7620855184061</v>
+        <v>129.8134911691166</v>
       </c>
       <c r="Y8" t="n">
-        <v>235.7620855184061</v>
+        <v>129.8134911691166</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9.526712843396819</v>
+        <v>188.8274420459917</v>
       </c>
       <c r="C9" t="n">
-        <v>9.526712843396819</v>
+        <v>188.8274420459917</v>
       </c>
       <c r="D9" t="n">
-        <v>9.526712843396819</v>
+        <v>188.8274420459917</v>
       </c>
       <c r="E9" t="n">
-        <v>9.526712843396819</v>
+        <v>94.70702737294539</v>
       </c>
       <c r="F9" t="n">
-        <v>9.526712843396819</v>
+        <v>94.70702737294539</v>
       </c>
       <c r="G9" t="n">
-        <v>9.526712843396819</v>
+        <v>9.526712843396989</v>
       </c>
       <c r="H9" t="n">
-        <v>9.526712843396819</v>
+        <v>9.526712843396989</v>
       </c>
       <c r="I9" t="n">
-        <v>42.50045791160433</v>
+        <v>16.43678475114703</v>
       </c>
       <c r="J9" t="n">
-        <v>106.1008288847751</v>
+        <v>67.70899752368017</v>
       </c>
       <c r="K9" t="n">
-        <v>138.5095062640908</v>
+        <v>100.1176749029965</v>
       </c>
       <c r="L9" t="n">
-        <v>182.0869724797799</v>
+        <v>143.6951411186864</v>
       </c>
       <c r="M9" t="n">
-        <v>299.9800439168155</v>
+        <v>194.5479887761029</v>
       </c>
       <c r="N9" t="n">
-        <v>352.1788151343521</v>
+        <v>246.7467599936404</v>
       </c>
       <c r="O9" t="n">
-        <v>399.9304929406846</v>
+        <v>294.4984377999737</v>
       </c>
       <c r="P9" t="n">
-        <v>438.2554242425464</v>
+        <v>332.8233691018363</v>
       </c>
       <c r="Q9" t="n">
-        <v>463.8746258735214</v>
+        <v>358.4425707328117</v>
       </c>
       <c r="R9" t="n">
-        <v>476.3356421698409</v>
+        <v>476.3356421698495</v>
       </c>
       <c r="S9" t="n">
-        <v>476.3356421698409</v>
+        <v>476.3356421698495</v>
       </c>
       <c r="T9" t="n">
-        <v>370.3870478205491</v>
+        <v>429.4009986974309</v>
       </c>
       <c r="U9" t="n">
-        <v>370.3870478205491</v>
+        <v>429.4009986974309</v>
       </c>
       <c r="V9" t="n">
-        <v>250.1002694948317</v>
+        <v>429.4009986974309</v>
       </c>
       <c r="W9" t="n">
-        <v>129.8134911691142</v>
+        <v>309.1142203717113</v>
       </c>
       <c r="X9" t="n">
-        <v>9.526712843396819</v>
+        <v>188.8274420459917</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.526712843396819</v>
+        <v>188.8274420459917</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>250.1002694948317</v>
+        <v>222.0634707950123</v>
       </c>
       <c r="C10" t="n">
-        <v>250.1002694948317</v>
+        <v>222.0634707950123</v>
       </c>
       <c r="D10" t="n">
-        <v>129.8134911691142</v>
+        <v>129.8134911691166</v>
       </c>
       <c r="E10" t="n">
-        <v>129.8134911691142</v>
+        <v>9.526712843396989</v>
       </c>
       <c r="F10" t="n">
-        <v>9.526712843396819</v>
+        <v>9.526712843396989</v>
       </c>
       <c r="G10" t="n">
-        <v>9.526712843396819</v>
+        <v>9.526712843396989</v>
       </c>
       <c r="H10" t="n">
-        <v>9.526712843396819</v>
+        <v>9.526712843396989</v>
       </c>
       <c r="I10" t="n">
-        <v>9.526712843396819</v>
+        <v>9.526712843396989</v>
       </c>
       <c r="J10" t="n">
-        <v>108.0024003011148</v>
+        <v>38.8597456397983</v>
       </c>
       <c r="K10" t="n">
-        <v>127.5511863760666</v>
+        <v>58.40853171475041</v>
       </c>
       <c r="L10" t="n">
-        <v>152.5669021405237</v>
+        <v>176.3016031517881</v>
       </c>
       <c r="M10" t="n">
-        <v>196.4163556467471</v>
+        <v>202.6771679632435</v>
       </c>
       <c r="N10" t="n">
-        <v>314.3094270837827</v>
+        <v>320.5702394002813</v>
       </c>
       <c r="O10" t="n">
-        <v>338.092253836001</v>
+        <v>344.3530661525</v>
       </c>
       <c r="P10" t="n">
-        <v>358.4425707328053</v>
+        <v>462.2461375895377</v>
       </c>
       <c r="Q10" t="n">
-        <v>476.3356421698409</v>
+        <v>476.3356421698495</v>
       </c>
       <c r="R10" t="n">
-        <v>476.3356421698409</v>
+        <v>462.6370274464515</v>
       </c>
       <c r="S10" t="n">
-        <v>476.3356421698409</v>
+        <v>342.3502491207319</v>
       </c>
       <c r="T10" t="n">
-        <v>370.3870478205491</v>
+        <v>222.0634707950123</v>
       </c>
       <c r="U10" t="n">
-        <v>370.3870478205491</v>
+        <v>222.0634707950123</v>
       </c>
       <c r="V10" t="n">
-        <v>250.1002694948317</v>
+        <v>222.0634707950123</v>
       </c>
       <c r="W10" t="n">
-        <v>250.1002694948317</v>
+        <v>222.0634707950123</v>
       </c>
       <c r="X10" t="n">
-        <v>250.1002694948317</v>
+        <v>222.0634707950123</v>
       </c>
       <c r="Y10" t="n">
-        <v>250.1002694948317</v>
+        <v>222.0634707950123</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2360.327577447737</v>
+        <v>1078.116190886639</v>
       </c>
       <c r="C11" t="n">
-        <v>2013.98275358362</v>
+        <v>639.9737180700627</v>
       </c>
       <c r="D11" t="n">
-        <v>1578.072968758064</v>
+        <v>639.9737180700627</v>
       </c>
       <c r="E11" t="n">
-        <v>1144.298223916359</v>
+        <v>206.1989732283578</v>
       </c>
       <c r="F11" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G11" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435804</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228012</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867024</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M11" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N11" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O11" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P11" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q11" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R11" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T11" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U11" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V11" t="n">
-        <v>2360.327577447737</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W11" t="n">
-        <v>2360.327577447737</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="X11" t="n">
-        <v>2360.327577447737</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="Y11" t="n">
-        <v>2360.327577447737</v>
+        <v>1078.116190886639</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C12" t="n">
-        <v>436.1148439030333</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D12" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E12" t="n">
-        <v>246.9041403765402</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F12" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G12" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J12" t="n">
         <v>175.316627066898</v>
@@ -5159,13 +5159,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W12" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X12" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y12" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="13">
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>471.655226289377</v>
+        <v>750.041858240633</v>
       </c>
       <c r="C13" t="n">
-        <v>299.093514772602</v>
+        <v>577.480146723858</v>
       </c>
       <c r="D13" t="n">
-        <v>179.5506121696388</v>
+        <v>411.6021539253807</v>
       </c>
       <c r="E13" t="n">
-        <v>179.5506121696388</v>
+        <v>356.2576662078826</v>
       </c>
       <c r="F13" t="n">
         <v>179.5506121696388</v>
@@ -5193,58 +5193,58 @@
         <v>179.5506121696388</v>
       </c>
       <c r="H13" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J13" t="n">
-        <v>106.1122152511379</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K13" t="n">
         <v>202.912315818696</v>
       </c>
       <c r="L13" t="n">
-        <v>326.783117436994</v>
+        <v>744.9929992049549</v>
       </c>
       <c r="M13" t="n">
-        <v>550.4276429928793</v>
+        <v>1329.174074623269</v>
       </c>
       <c r="N13" t="n">
-        <v>1120.185357954413</v>
+        <v>1898.931789584804</v>
       </c>
       <c r="O13" t="n">
-        <v>1657.620488527957</v>
+        <v>2173.320157362629</v>
       </c>
       <c r="P13" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q13" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R13" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S13" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T13" t="n">
         <v>1973.653814855378</v>
       </c>
       <c r="U13" t="n">
-        <v>1695.267182904121</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V13" t="n">
-        <v>1408.311674774552</v>
+        <v>1686.698306725808</v>
       </c>
       <c r="W13" t="n">
-        <v>1136.285270360843</v>
+        <v>1414.6719023121</v>
       </c>
       <c r="X13" t="n">
-        <v>890.8935156942559</v>
+        <v>1169.280147645512</v>
       </c>
       <c r="Y13" t="n">
-        <v>663.4738450083642</v>
+        <v>941.8604769596202</v>
       </c>
     </row>
     <row r="14">
@@ -5254,46 +5254,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>47.20655154895474</v>
+        <v>1529.172552373861</v>
       </c>
       <c r="C14" t="n">
-        <v>47.20655154895474</v>
+        <v>1310.486457285825</v>
       </c>
       <c r="D14" t="n">
-        <v>47.20655154895474</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="E14" t="n">
-        <v>47.20655154895474</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F14" t="n">
-        <v>47.20655154895474</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G14" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001358</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435806</v>
+        <v>276.053277043581</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M14" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N14" t="n">
         <v>1463.013992431967</v>
       </c>
       <c r="O14" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P14" t="n">
         <v>2043.069798152528</v>
@@ -5302,28 +5302,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R14" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S14" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T14" t="n">
-        <v>2108.089956131646</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="U14" t="n">
-        <v>1849.01926465316</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="V14" t="n">
-        <v>1486.402314586987</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="W14" t="n">
-        <v>1081.54685999802</v>
+        <v>1955.472122858769</v>
       </c>
       <c r="X14" t="n">
-        <v>662.4043965773309</v>
+        <v>1955.472122858769</v>
       </c>
       <c r="Y14" t="n">
-        <v>254.1182728769843</v>
+        <v>1955.472122858769</v>
       </c>
     </row>
     <row r="15">
@@ -5333,40 +5333,40 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C15" t="n">
-        <v>436.1148439030333</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D15" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E15" t="n">
-        <v>246.9041403765402</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F15" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G15" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043082</v>
       </c>
       <c r="J15" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668988</v>
       </c>
       <c r="K15" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210689</v>
       </c>
       <c r="L15" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960912</v>
       </c>
       <c r="M15" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987884</v>
       </c>
       <c r="N15" t="n">
         <v>1061.861364220108</v>
@@ -5396,13 +5396,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W15" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X15" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y15" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="16">
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1092.291841223631</v>
+        <v>713.9024503859694</v>
       </c>
       <c r="C16" t="n">
-        <v>919.7301297068562</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="D16" t="n">
-        <v>753.852136908379</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="E16" t="n">
         <v>584.0941331591162</v>
@@ -5433,7 +5433,7 @@
         <v>110.3018381127067</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J16" t="n">
         <v>192.6919004158277</v>
@@ -5442,16 +5442,16 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L16" t="n">
-        <v>756.0122647025505</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M16" t="n">
-        <v>1340.193340120865</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N16" t="n">
-        <v>1467.692251924755</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O16" t="n">
-        <v>2005.127382498298</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P16" t="n">
         <v>2105.896438675981</v>
@@ -5460,28 +5460,28 @@
         <v>2343.856484770969</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S16" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T16" t="n">
-        <v>2118.080353351143</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="U16" t="n">
-        <v>1839.693721399886</v>
+        <v>1937.514407000714</v>
       </c>
       <c r="V16" t="n">
-        <v>1552.738213270317</v>
+        <v>1650.558898871144</v>
       </c>
       <c r="W16" t="n">
-        <v>1552.738213270317</v>
+        <v>1378.532494457436</v>
       </c>
       <c r="X16" t="n">
-        <v>1307.346458603729</v>
+        <v>1133.140739790848</v>
       </c>
       <c r="Y16" t="n">
-        <v>1284.110459942618</v>
+        <v>905.7210691049565</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2148.556325916849</v>
+        <v>1698.173566117874</v>
       </c>
       <c r="C17" t="n">
-        <v>1710.413853100272</v>
+        <v>1698.173566117874</v>
       </c>
       <c r="D17" t="n">
-        <v>1274.504068274717</v>
+        <v>1578.072968758064</v>
       </c>
       <c r="E17" t="n">
-        <v>840.7293234330118</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="F17" t="n">
         <v>716.4307943255671</v>
@@ -5509,19 +5509,19 @@
         <v>316.9281030050443</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001352</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K17" t="n">
         <v>512.3249274228015</v>
       </c>
       <c r="L17" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867021</v>
       </c>
       <c r="M17" t="n">
         <v>1131.588690455489</v>
@@ -5539,28 +5539,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R17" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T17" t="n">
-        <v>2148.556325916849</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U17" t="n">
-        <v>2148.556325916849</v>
+        <v>2060.790516184047</v>
       </c>
       <c r="V17" t="n">
-        <v>2148.556325916849</v>
+        <v>1698.173566117874</v>
       </c>
       <c r="W17" t="n">
-        <v>2148.556325916849</v>
+        <v>1698.173566117874</v>
       </c>
       <c r="X17" t="n">
-        <v>2148.556325916849</v>
+        <v>1698.173566117874</v>
       </c>
       <c r="Y17" t="n">
-        <v>2148.556325916849</v>
+        <v>1698.173566117874</v>
       </c>
     </row>
     <row r="18">
@@ -5585,19 +5585,19 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G18" t="n">
-        <v>79.14920158235849</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H18" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I18" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043101</v>
       </c>
       <c r="J18" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K18" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L18" t="n">
         <v>551.5786779960906</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>616.0817647851416</v>
+        <v>730.9745012407178</v>
       </c>
       <c r="C19" t="n">
-        <v>616.0817647851416</v>
+        <v>558.4127897239428</v>
       </c>
       <c r="D19" t="n">
-        <v>450.2037719866643</v>
+        <v>558.4127897239428</v>
       </c>
       <c r="E19" t="n">
-        <v>356.2576662078826</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F19" t="n">
-        <v>179.5506121696388</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G19" t="n">
-        <v>179.5506121696388</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H19" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I19" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J19" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K19" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L19" t="n">
-        <v>744.992999204955</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M19" t="n">
-        <v>875.5973915434845</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N19" t="n">
-        <v>1288.378132818745</v>
+        <v>1539.854607180194</v>
       </c>
       <c r="O19" t="n">
-        <v>1825.813263392288</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P19" t="n">
-        <v>2274.089213540313</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q19" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R19" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S19" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T19" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U19" t="n">
-        <v>1839.693721399886</v>
+        <v>1954.586457855462</v>
       </c>
       <c r="V19" t="n">
-        <v>1552.738213270316</v>
+        <v>1667.630949725893</v>
       </c>
       <c r="W19" t="n">
-        <v>1280.711808856608</v>
+        <v>1395.604545312184</v>
       </c>
       <c r="X19" t="n">
-        <v>1035.320054190021</v>
+        <v>1150.212790645597</v>
       </c>
       <c r="Y19" t="n">
-        <v>807.9003835041287</v>
+        <v>922.7931199597049</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2182.403674944107</v>
+        <v>1422.719694168252</v>
       </c>
       <c r="C20" t="n">
-        <v>1744.26120212753</v>
+        <v>984.5772213516757</v>
       </c>
       <c r="D20" t="n">
-        <v>1308.351417301975</v>
+        <v>984.5772213516757</v>
       </c>
       <c r="E20" t="n">
-        <v>874.5766724602698</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F20" t="n">
-        <v>446.7092428694776</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G20" t="n">
-        <v>47.20655154895475</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867027</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M20" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N20" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O20" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P20" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q20" t="n">
-        <v>2243.650993163597</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R20" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T20" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U20" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V20" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W20" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="X20" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="Y20" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
     </row>
     <row r="21">
@@ -5807,46 +5807,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C21" t="n">
-        <v>436.1148439030333</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D21" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E21" t="n">
-        <v>246.9041403765402</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F21" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G21" t="n">
-        <v>79.14920158235863</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043081</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J21" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K21" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210684</v>
       </c>
       <c r="L21" t="n">
         <v>551.5786779960906</v>
       </c>
       <c r="M21" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N21" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O21" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P21" t="n">
         <v>1488.088567599445</v>
@@ -5858,7 +5858,7 @@
         <v>1676.651116233592</v>
       </c>
       <c r="S21" t="n">
-        <v>1632.030085633327</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T21" t="n">
         <v>1505.938530508979</v>
@@ -5870,13 +5870,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W21" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X21" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y21" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>471.655226289377</v>
+        <v>959.9477806029472</v>
       </c>
       <c r="C22" t="n">
-        <v>452.8868849494278</v>
+        <v>787.3860690861721</v>
       </c>
       <c r="D22" t="n">
-        <v>287.0088921509505</v>
+        <v>621.5080762876948</v>
       </c>
       <c r="E22" t="n">
-        <v>287.0088921509505</v>
+        <v>451.7500725384321</v>
       </c>
       <c r="F22" t="n">
-        <v>110.3018381127067</v>
+        <v>275.0430185001883</v>
       </c>
       <c r="G22" t="n">
         <v>110.3018381127067</v>
@@ -5907,55 +5907,55 @@
         <v>110.3018381127067</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J22" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K22" t="n">
-        <v>202.9123158186961</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L22" t="n">
-        <v>481.9462364092384</v>
+        <v>688.1212571728194</v>
       </c>
       <c r="M22" t="n">
-        <v>1066.127311827553</v>
+        <v>1272.302332591134</v>
       </c>
       <c r="N22" t="n">
-        <v>1635.885026789087</v>
+        <v>1399.801244395024</v>
       </c>
       <c r="O22" t="n">
-        <v>2173.320157362631</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P22" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q22" t="n">
-        <v>2343.85648477097</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R22" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S22" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T22" t="n">
         <v>1973.653814855378</v>
       </c>
       <c r="U22" t="n">
-        <v>1695.267182904121</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V22" t="n">
-        <v>1408.311674774552</v>
+        <v>1686.698306725808</v>
       </c>
       <c r="W22" t="n">
-        <v>1136.285270360843</v>
+        <v>1414.6719023121</v>
       </c>
       <c r="X22" t="n">
-        <v>890.8935156942559</v>
+        <v>1379.186070007826</v>
       </c>
       <c r="Y22" t="n">
-        <v>663.4738450083642</v>
+        <v>1151.766399321934</v>
       </c>
     </row>
     <row r="23">
@@ -5965,49 +5965,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1590.483051967699</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="C23" t="n">
-        <v>1152.340579151123</v>
+        <v>1881.718734845957</v>
       </c>
       <c r="D23" t="n">
-        <v>716.4307943255671</v>
+        <v>1445.808950020401</v>
       </c>
       <c r="E23" t="n">
-        <v>716.4307943255671</v>
+        <v>1012.034205178697</v>
       </c>
       <c r="F23" t="n">
-        <v>716.4307943255671</v>
+        <v>584.1667755879043</v>
       </c>
       <c r="G23" t="n">
-        <v>316.9281030050443</v>
+        <v>184.6640842673815</v>
       </c>
       <c r="H23" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I23" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J23" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435802</v>
       </c>
       <c r="K23" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228012</v>
       </c>
       <c r="L23" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867019</v>
       </c>
       <c r="M23" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N23" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O23" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P23" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q23" t="n">
         <v>2243.650993163596</v>
@@ -6016,25 +6016,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S23" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T23" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U23" t="n">
-        <v>2101.256885969251</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V23" t="n">
-        <v>1738.639935903077</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W23" t="n">
-        <v>1590.483051967699</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="X23" t="n">
-        <v>1590.483051967699</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="Y23" t="n">
-        <v>1590.483051967699</v>
+        <v>2319.861207662534</v>
       </c>
     </row>
     <row r="24">
@@ -6044,40 +6044,40 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>542.5713050663909</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C24" t="n">
-        <v>436.1148439030332</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D24" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E24" t="n">
-        <v>246.9041403765402</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F24" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G24" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H24" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I24" t="n">
-        <v>81.42328772043098</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J24" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K24" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L24" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M24" t="n">
-        <v>803.3877032987879</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N24" t="n">
         <v>1061.861364220108</v>
@@ -6110,10 +6110,10 @@
         <v>945.2284211280532</v>
       </c>
       <c r="X24" t="n">
-        <v>790.3609853669333</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y24" t="n">
-        <v>663.875206146154</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="25">
@@ -6123,49 +6123,49 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1092.291841223631</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="C25" t="n">
-        <v>919.7301297068562</v>
+        <v>299.0935147726011</v>
       </c>
       <c r="D25" t="n">
-        <v>753.852136908379</v>
+        <v>275.0430185001883</v>
       </c>
       <c r="E25" t="n">
-        <v>584.0941331591162</v>
+        <v>275.0430185001883</v>
       </c>
       <c r="F25" t="n">
-        <v>407.3870791208724</v>
+        <v>275.0430185001883</v>
       </c>
       <c r="G25" t="n">
-        <v>242.6458987333908</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H25" t="n">
         <v>110.3018381127067</v>
       </c>
       <c r="I25" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J25" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K25" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L25" t="n">
-        <v>733.4227107706872</v>
+        <v>481.9462364092375</v>
       </c>
       <c r="M25" t="n">
-        <v>1317.603786189002</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N25" t="n">
-        <v>1887.361501150536</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O25" t="n">
-        <v>2005.127382498298</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P25" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q25" t="n">
         <v>2343.856484770969</v>
@@ -6174,25 +6174,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S25" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T25" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U25" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V25" t="n">
-        <v>1552.738213270317</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W25" t="n">
-        <v>1552.738213270317</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X25" t="n">
-        <v>1511.53013062851</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y25" t="n">
-        <v>1284.110459942618</v>
+        <v>663.4738450083632</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1941.185114027048</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="C26" t="n">
-        <v>1503.042641210471</v>
+        <v>1048.25984177041</v>
       </c>
       <c r="D26" t="n">
-        <v>1067.132856384916</v>
+        <v>1048.25984177041</v>
       </c>
       <c r="E26" t="n">
-        <v>633.3581115432107</v>
+        <v>1048.25984177041</v>
       </c>
       <c r="F26" t="n">
-        <v>205.4906819524185</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G26" t="n">
-        <v>205.4906819524185</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H26" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I26" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001354</v>
       </c>
       <c r="J26" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435807</v>
       </c>
       <c r="K26" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L26" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867024</v>
       </c>
       <c r="M26" t="n">
         <v>1131.58869045549</v>
@@ -6253,25 +6253,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S26" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T26" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U26" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V26" t="n">
-        <v>2360.327577447737</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="W26" t="n">
-        <v>2360.327577447737</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="X26" t="n">
-        <v>1941.185114027048</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="Y26" t="n">
-        <v>1941.185114027048</v>
+        <v>1486.402314586987</v>
       </c>
     </row>
     <row r="27">
@@ -6363,19 +6363,19 @@
         <v>616.081764785142</v>
       </c>
       <c r="C28" t="n">
-        <v>616.081764785142</v>
+        <v>443.520053268367</v>
       </c>
       <c r="D28" t="n">
-        <v>450.2037719866647</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E28" t="n">
-        <v>450.2037719866647</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F28" t="n">
-        <v>273.496717948421</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G28" t="n">
-        <v>108.7555375609394</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H28" t="n">
         <v>47.20655154895474</v>
@@ -6384,7 +6384,7 @@
         <v>47.20655154895474</v>
       </c>
       <c r="J28" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K28" t="n">
         <v>358.0754347909399</v>
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1941.185114027048</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="C29" t="n">
-        <v>1503.042641210471</v>
+        <v>1710.413853100273</v>
       </c>
       <c r="D29" t="n">
-        <v>1067.132856384916</v>
+        <v>1578.072968758064</v>
       </c>
       <c r="E29" t="n">
-        <v>633.3581115432107</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="F29" t="n">
-        <v>205.4906819524185</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G29" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H29" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I29" t="n">
-        <v>118.4065018001356</v>
+        <v>118.4065018001354</v>
       </c>
       <c r="J29" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435807</v>
       </c>
       <c r="K29" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L29" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867024</v>
       </c>
       <c r="M29" t="n">
         <v>1131.58869045549</v>
@@ -6493,22 +6493,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T29" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U29" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="V29" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="W29" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="X29" t="n">
-        <v>1941.185114027048</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="Y29" t="n">
-        <v>1941.185114027048</v>
+        <v>2148.556325916849</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C30" t="n">
-        <v>436.1148439030333</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D30" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E30" t="n">
-        <v>246.9041403765402</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F30" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G30" t="n">
         <v>79.1492015823585</v>
@@ -6581,13 +6581,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W30" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X30" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y30" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>616.081764785142</v>
+        <v>864.4553742723976</v>
       </c>
       <c r="C31" t="n">
-        <v>443.520053268367</v>
+        <v>691.8936627556226</v>
       </c>
       <c r="D31" t="n">
-        <v>443.520053268367</v>
+        <v>526.0156699571453</v>
       </c>
       <c r="E31" t="n">
-        <v>273.7620495191042</v>
+        <v>356.2576662078826</v>
       </c>
       <c r="F31" t="n">
-        <v>97.05499548086041</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G31" t="n">
-        <v>47.20655154895474</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H31" t="n">
         <v>47.20655154895474</v>
@@ -6621,25 +6621,25 @@
         <v>47.20655154895474</v>
       </c>
       <c r="J31" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K31" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545215</v>
       </c>
       <c r="L31" t="n">
-        <v>481.9462364092378</v>
+        <v>1106.331138940781</v>
       </c>
       <c r="M31" t="n">
-        <v>1066.127311827553</v>
+        <v>1690.512214359095</v>
       </c>
       <c r="N31" t="n">
-        <v>1635.885026789087</v>
+        <v>1887.361501150536</v>
       </c>
       <c r="O31" t="n">
-        <v>2173.32015736263</v>
+        <v>2005.127382498298</v>
       </c>
       <c r="P31" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q31" t="n">
         <v>2343.856484770969</v>
@@ -6648,25 +6648,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S31" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T31" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U31" t="n">
-        <v>1839.693721399886</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V31" t="n">
-        <v>1552.738213270317</v>
+        <v>1686.698306725809</v>
       </c>
       <c r="W31" t="n">
-        <v>1280.711808856609</v>
+        <v>1414.6719023121</v>
       </c>
       <c r="X31" t="n">
-        <v>1035.320054190021</v>
+        <v>1169.280147645513</v>
       </c>
       <c r="Y31" t="n">
-        <v>807.9003835041292</v>
+        <v>1056.273992991385</v>
       </c>
     </row>
     <row r="32">
@@ -6676,49 +6676,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1492.432620541498</v>
+        <v>1087.577165952531</v>
       </c>
       <c r="C32" t="n">
-        <v>1054.290147724922</v>
+        <v>649.4346931359541</v>
       </c>
       <c r="D32" t="n">
-        <v>1054.290147724922</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E32" t="n">
-        <v>620.5154028832167</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F32" t="n">
-        <v>192.6479732924244</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G32" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H32" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I32" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001349</v>
       </c>
       <c r="J32" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435802</v>
       </c>
       <c r="K32" t="n">
-        <v>512.3249274228021</v>
+        <v>512.3249274228012</v>
       </c>
       <c r="L32" t="n">
-        <v>805.4408022867029</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M32" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N32" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O32" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P32" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q32" t="n">
         <v>2243.650993163596</v>
@@ -6739,13 +6739,13 @@
         <v>2319.861207662534</v>
       </c>
       <c r="W32" t="n">
-        <v>2319.861207662534</v>
+        <v>1915.005753073567</v>
       </c>
       <c r="X32" t="n">
-        <v>1900.718744241845</v>
+        <v>1495.863289652877</v>
       </c>
       <c r="Y32" t="n">
-        <v>1492.432620541498</v>
+        <v>1087.577165952531</v>
       </c>
     </row>
     <row r="33">
@@ -6758,25 +6758,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C33" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D33" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E33" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F33" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G33" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H33" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I33" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043085</v>
       </c>
       <c r="J33" t="n">
         <v>175.316627066898</v>
@@ -6834,49 +6834,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>616.081764785142</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="C34" t="n">
-        <v>443.520053268367</v>
+        <v>443.5200532683665</v>
       </c>
       <c r="D34" t="n">
-        <v>393.6716093364613</v>
+        <v>277.6420604698892</v>
       </c>
       <c r="E34" t="n">
-        <v>223.9136055871985</v>
+        <v>107.8840567206265</v>
       </c>
       <c r="F34" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G34" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H34" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I34" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J34" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K34" t="n">
-        <v>564.2504555545214</v>
+        <v>358.0754347909395</v>
       </c>
       <c r="L34" t="n">
-        <v>1106.33113894078</v>
+        <v>481.9462364092375</v>
       </c>
       <c r="M34" t="n">
-        <v>1412.355695376305</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N34" t="n">
-        <v>1539.854607180195</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O34" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P34" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q34" t="n">
         <v>2343.856484770969</v>
@@ -6894,16 +6894,16 @@
         <v>1839.693721399886</v>
       </c>
       <c r="V34" t="n">
-        <v>1552.738213270317</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W34" t="n">
-        <v>1280.711808856609</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X34" t="n">
         <v>1035.320054190021</v>
       </c>
       <c r="Y34" t="n">
-        <v>807.9003835041292</v>
+        <v>807.9003835041287</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>828.506474474044</v>
+        <v>884.8517156860543</v>
       </c>
       <c r="C35" t="n">
-        <v>390.3640016574673</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="D35" t="n">
-        <v>47.20655154895471</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E35" t="n">
-        <v>47.20655154895471</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F35" t="n">
-        <v>47.20655154895471</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G35" t="n">
-        <v>47.20655154895471</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H35" t="n">
-        <v>47.20655154895471</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I35" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K35" t="n">
         <v>512.3249274228015</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867021</v>
+        <v>805.4408022867024</v>
       </c>
       <c r="M35" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N35" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O35" t="n">
-        <v>1775.969506973258</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P35" t="n">
-        <v>2043.069798152527</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q35" t="n">
-        <v>2243.650993163595</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R35" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S35" t="n">
-        <v>2319.861207662533</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T35" t="n">
-        <v>2319.861207662533</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U35" t="n">
-        <v>2060.790516184047</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V35" t="n">
-        <v>2060.790516184047</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="W35" t="n">
-        <v>1655.93506159508</v>
+        <v>1730.293749591651</v>
       </c>
       <c r="X35" t="n">
-        <v>1236.792598174391</v>
+        <v>1311.151286170962</v>
       </c>
       <c r="Y35" t="n">
-        <v>828.506474474044</v>
+        <v>1311.151286170962</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1226.247766280535</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C36" t="n">
-        <v>1119.791305117178</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D36" t="n">
-        <v>1024.701016263731</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E36" t="n">
-        <v>930.5806015906846</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F36" t="n">
-        <v>847.1967632068463</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G36" t="n">
-        <v>762.825662796503</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H36" t="n">
-        <v>730.8830127630993</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I36" t="n">
-        <v>765.0997489345754</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J36" t="n">
-        <v>858.9930882810424</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K36" t="n">
-        <v>1019.471760335213</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L36" t="n">
-        <v>1235.255139210235</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M36" t="n">
-        <v>1487.064164512932</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N36" t="n">
-        <v>1745.537825434252</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O36" t="n">
-        <v>1981.990728248782</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P36" t="n">
-        <v>2171.765028813589</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q36" t="n">
-        <v>2298.624123021823</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R36" t="n">
-        <v>2360.327577447736</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S36" t="n">
-        <v>2315.70654684747</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T36" t="n">
-        <v>2189.614991723123</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U36" t="n">
-        <v>2013.345154547005</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V36" t="n">
-        <v>1814.227636609004</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W36" t="n">
-        <v>1628.904882342198</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X36" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y36" t="n">
-        <v>1347.551667360299</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>713.9024503859685</v>
+        <v>616.081764785142</v>
       </c>
       <c r="C37" t="n">
-        <v>541.3407388691934</v>
+        <v>443.520053268367</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6547859746801</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E37" t="n">
-        <v>388.6547859746801</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F37" t="n">
-        <v>211.9477319364363</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G37" t="n">
-        <v>47.20655154895471</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H37" t="n">
-        <v>47.20655154895471</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I37" t="n">
-        <v>47.20655154895471</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J37" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K37" t="n">
-        <v>564.2504555545214</v>
+        <v>202.9123158186961</v>
       </c>
       <c r="L37" t="n">
-        <v>1106.33113894078</v>
+        <v>744.9929992049551</v>
       </c>
       <c r="M37" t="n">
-        <v>1412.355695376304</v>
+        <v>1329.17407462327</v>
       </c>
       <c r="N37" t="n">
-        <v>1539.854607180193</v>
+        <v>1898.931789584804</v>
       </c>
       <c r="O37" t="n">
-        <v>1657.620488527955</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P37" t="n">
-        <v>2105.89643867598</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q37" t="n">
-        <v>2343.856484770968</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R37" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S37" t="n">
-        <v>2215.90103895197</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T37" t="n">
-        <v>2215.90103895197</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U37" t="n">
-        <v>1937.514407000713</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V37" t="n">
-        <v>1650.558898871143</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W37" t="n">
-        <v>1378.532494457435</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X37" t="n">
-        <v>1133.140739790847</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y37" t="n">
-        <v>905.7210691049556</v>
+        <v>807.9003835041292</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1190.980360647176</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="C38" t="n">
-        <v>752.8378878305998</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D38" t="n">
-        <v>316.9281030050443</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E38" t="n">
-        <v>316.9281030050443</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F38" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G38" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H38" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I38" t="n">
         <v>118.4065018001353</v>
@@ -7177,49 +7177,49 @@
         <v>276.0532770435806</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L38" t="n">
-        <v>805.4408022867021</v>
+        <v>805.4408022867024</v>
       </c>
       <c r="M38" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N38" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O38" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P38" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q38" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R38" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S38" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T38" t="n">
-        <v>2360.327577447736</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U38" t="n">
-        <v>2360.327577447736</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V38" t="n">
-        <v>2360.327577447736</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W38" t="n">
-        <v>1955.472122858769</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="X38" t="n">
-        <v>1536.32965943808</v>
+        <v>1771.058081291915</v>
       </c>
       <c r="Y38" t="n">
-        <v>1190.980360647176</v>
+        <v>1771.058081291915</v>
       </c>
     </row>
     <row r="39">
@@ -7232,31 +7232,31 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C39" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D39" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E39" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F39" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G39" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H39" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I39" t="n">
-        <v>81.42328772043101</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J39" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K39" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L39" t="n">
         <v>551.5786779960906</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1029.196554659879</v>
+        <v>616.081764785142</v>
       </c>
       <c r="C40" t="n">
-        <v>856.6348431431041</v>
+        <v>515.1866087173789</v>
       </c>
       <c r="D40" t="n">
-        <v>690.7568503446269</v>
+        <v>349.3086159189016</v>
       </c>
       <c r="E40" t="n">
-        <v>520.9988465953642</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="F40" t="n">
-        <v>344.2917925571204</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G40" t="n">
         <v>179.5506121696388</v>
       </c>
       <c r="H40" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I40" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J40" t="n">
-        <v>106.1122152511378</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K40" t="n">
-        <v>202.912315818696</v>
+        <v>358.0754347909399</v>
       </c>
       <c r="L40" t="n">
-        <v>744.9929992049549</v>
+        <v>481.9462364092378</v>
       </c>
       <c r="M40" t="n">
-        <v>875.5973915434844</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N40" t="n">
-        <v>1445.355106505019</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O40" t="n">
-        <v>1982.790237078562</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P40" t="n">
-        <v>2274.089213540313</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q40" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R40" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S40" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T40" t="n">
-        <v>2360.327577447736</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U40" t="n">
-        <v>2252.808511274623</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V40" t="n">
-        <v>1965.853003145054</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W40" t="n">
-        <v>1693.826598731346</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X40" t="n">
-        <v>1448.434844064758</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y40" t="n">
-        <v>1221.015173378866</v>
+        <v>807.9003835041292</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>475.073981139747</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="C41" t="n">
-        <v>475.073981139747</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="D41" t="n">
-        <v>475.073981139747</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E41" t="n">
-        <v>475.073981139747</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F41" t="n">
-        <v>47.20655154895472</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G41" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H41" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L41" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867027</v>
       </c>
       <c r="M41" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N41" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O41" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P41" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q41" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R41" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S41" t="n">
-        <v>2319.861207662533</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T41" t="n">
-        <v>2108.089956131646</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U41" t="n">
-        <v>1849.01926465316</v>
+        <v>2101.256885969251</v>
       </c>
       <c r="V41" t="n">
-        <v>1486.402314586986</v>
+        <v>2101.256885969251</v>
       </c>
       <c r="W41" t="n">
-        <v>1081.546859998019</v>
+        <v>1696.401431380284</v>
       </c>
       <c r="X41" t="n">
-        <v>662.40439657733</v>
+        <v>1277.258967959595</v>
       </c>
       <c r="Y41" t="n">
-        <v>475.073981139747</v>
+        <v>868.9728442592483</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1226.247766280535</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C42" t="n">
-        <v>1119.791305117177</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D42" t="n">
-        <v>1024.701016263731</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E42" t="n">
-        <v>930.5806015906844</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F42" t="n">
-        <v>847.1967632068461</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G42" t="n">
-        <v>762.8256627965029</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H42" t="n">
-        <v>730.8830127630991</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I42" t="n">
-        <v>765.0997489345752</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J42" t="n">
-        <v>858.9930882810423</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K42" t="n">
-        <v>1019.471760335213</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L42" t="n">
-        <v>1235.255139210235</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M42" t="n">
-        <v>1487.064164512932</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N42" t="n">
-        <v>1745.537825434252</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O42" t="n">
-        <v>1981.990728248782</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P42" t="n">
-        <v>2171.765028813589</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q42" t="n">
-        <v>2298.624123021823</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R42" t="n">
-        <v>2360.327577447736</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S42" t="n">
-        <v>2315.70654684747</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T42" t="n">
-        <v>2189.614991723123</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U42" t="n">
-        <v>2013.345154547004</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V42" t="n">
-        <v>1814.227636609004</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W42" t="n">
-        <v>1628.904882342198</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X42" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y42" t="n">
-        <v>1347.551667360298</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="43">
@@ -7545,58 +7545,58 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>616.0817647851411</v>
+        <v>724.2907825224202</v>
       </c>
       <c r="C43" t="n">
-        <v>616.0817647851411</v>
+        <v>724.2907825224202</v>
       </c>
       <c r="D43" t="n">
-        <v>616.0817647851411</v>
+        <v>558.4127897239429</v>
       </c>
       <c r="E43" t="n">
-        <v>446.3237610358784</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F43" t="n">
-        <v>269.6167069976345</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G43" t="n">
-        <v>104.8755266101529</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H43" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I43" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J43" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K43" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L43" t="n">
-        <v>862.0820538119935</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M43" t="n">
-        <v>992.686446150523</v>
+        <v>718.6204178572111</v>
       </c>
       <c r="N43" t="n">
-        <v>1120.185357954412</v>
+        <v>1288.378132818745</v>
       </c>
       <c r="O43" t="n">
-        <v>1657.620488527956</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P43" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q43" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R43" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S43" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T43" t="n">
         <v>2118.080353351143</v>
@@ -7605,16 +7605,16 @@
         <v>1839.693721399886</v>
       </c>
       <c r="V43" t="n">
-        <v>1552.738213270316</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W43" t="n">
-        <v>1280.711808856608</v>
+        <v>1388.920826593887</v>
       </c>
       <c r="X43" t="n">
-        <v>1035.32005419002</v>
+        <v>1143.529071927299</v>
       </c>
       <c r="Y43" t="n">
-        <v>807.9003835041283</v>
+        <v>916.1094012414073</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1233.361929063012</v>
+        <v>747.4131388869995</v>
       </c>
       <c r="C44" t="n">
-        <v>1233.361929063012</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D44" t="n">
-        <v>1233.361929063012</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E44" t="n">
-        <v>874.5766724602698</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F44" t="n">
-        <v>446.7092428694776</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G44" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H44" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228014</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L44" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867027</v>
       </c>
       <c r="M44" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N44" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O44" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P44" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q44" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R44" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S44" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T44" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U44" t="n">
-        <v>2060.790516184048</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="V44" t="n">
-        <v>2060.790516184048</v>
+        <v>1997.710627381563</v>
       </c>
       <c r="W44" t="n">
-        <v>2060.790516184048</v>
+        <v>1592.855172792597</v>
       </c>
       <c r="X44" t="n">
-        <v>1641.648052763358</v>
+        <v>1173.712709371907</v>
       </c>
       <c r="Y44" t="n">
-        <v>1233.361929063012</v>
+        <v>1173.712709371907</v>
       </c>
     </row>
     <row r="45">
@@ -7706,7 +7706,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C45" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D45" t="n">
         <v>341.0245550495863</v>
@@ -7721,22 +7721,22 @@
         <v>79.1492015823585</v>
       </c>
       <c r="H45" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I45" t="n">
         <v>81.42328772043086</v>
       </c>
       <c r="J45" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K45" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L45" t="n">
         <v>551.5786779960906</v>
       </c>
       <c r="M45" t="n">
-        <v>803.3877032987879</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N45" t="n">
         <v>1061.861364220108</v>
@@ -7782,49 +7782,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>471.6552262893761</v>
+        <v>732.1113136517137</v>
       </c>
       <c r="C46" t="n">
-        <v>471.6552262893761</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="D46" t="n">
-        <v>471.6552262893761</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E46" t="n">
-        <v>471.6552262893761</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F46" t="n">
-        <v>294.9481722511323</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G46" t="n">
-        <v>179.5506121696388</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H46" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I46" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J46" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K46" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L46" t="n">
-        <v>744.992999204955</v>
+        <v>828.1746199579906</v>
       </c>
       <c r="M46" t="n">
-        <v>875.5973915434845</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N46" t="n">
-        <v>1120.185357954412</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O46" t="n">
-        <v>1657.620488527956</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P46" t="n">
-        <v>2105.896438675981</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q46" t="n">
         <v>2343.856484770969</v>
@@ -7833,25 +7833,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S46" t="n">
-        <v>2215.901038951971</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T46" t="n">
         <v>1973.653814855378</v>
       </c>
       <c r="U46" t="n">
-        <v>1695.267182904121</v>
+        <v>1955.723270266458</v>
       </c>
       <c r="V46" t="n">
-        <v>1408.311674774551</v>
+        <v>1668.767762136888</v>
       </c>
       <c r="W46" t="n">
-        <v>1136.285270360843</v>
+        <v>1396.74135772318</v>
       </c>
       <c r="X46" t="n">
-        <v>890.893515694255</v>
+        <v>1151.349603056593</v>
       </c>
       <c r="Y46" t="n">
-        <v>663.4738450083632</v>
+        <v>923.9299323707007</v>
       </c>
     </row>
   </sheetData>
@@ -8528,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>45.08950050499253</v>
+        <v>32.6368154538431</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8540,7 +8540,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>67.71739775719192</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>106.4970253946647</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>17.61316212461913</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>93.81551078038409</v>
       </c>
       <c r="M10" t="n">
-        <v>17.65039262097832</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>93.07541273182937</v>
+        <v>93.07541273183108</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>98.5280348891244</v>
       </c>
       <c r="Q10" t="n">
-        <v>104.8520877340648</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8853,22 +8853,22 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>93.97993254278373</v>
+        <v>458.1582657371566</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512944</v>
+        <v>158.2045317475392</v>
       </c>
       <c r="P13" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9090,19 +9090,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>68.5767752825567</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>458.1582657371571</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512944</v>
+        <v>177.1920849464593</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
         <v>169.8916917821538</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>177.1920849464593</v>
       </c>
       <c r="N19" t="n">
-        <v>288.1634641124958</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>156.7304232042872</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>458.1582657371571</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N22" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512944</v>
+        <v>141.4680432173443</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9795,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>45.75904403825037</v>
+        <v>156.7304232042864</v>
       </c>
       <c r="M25" t="n">
-        <v>458.1582657371571</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -10032,16 +10032,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>69.27619576520601</v>
+        <v>156.7304232042866</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>458.1582657371571</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>156.7304232042867</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
         <v>458.1582657371571</v>
       </c>
       <c r="N31" t="n">
-        <v>446.7260637956006</v>
+        <v>70.05088382580948</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10509,25 +10509,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960966</v>
+        <v>69.27619576520567</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>177.1920849464598</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>177.1920849464584</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>158.2045317475395</v>
       </c>
       <c r="P37" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10980,16 +10980,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>69.27619576520596</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
@@ -10998,7 +10998,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
-        <v>192.4544649334016</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -11217,19 +11217,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>175.7179764032063</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>263.871624324937</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
         <v>423.9083325512944</v>
@@ -11238,7 +11238,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11454,22 +11454,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>141.4680432173446</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N46" t="n">
-        <v>118.2717723303419</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>351.0170646165068</v>
@@ -23032,13 +23032,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>304.5048447524241</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>292.1158482464168</v>
+        <v>397.0049566522158</v>
       </c>
       <c r="H8" t="n">
-        <v>282.3584801445919</v>
+        <v>163.2745696021295</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23071,22 +23071,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>74.18125311796778</v>
+        <v>74.18125311796763</v>
       </c>
       <c r="T8" t="n">
-        <v>216.2079358176206</v>
+        <v>111.3188274118198</v>
       </c>
       <c r="U8" t="n">
-        <v>256.599767943293</v>
+        <v>137.5158574008307</v>
       </c>
       <c r="V8" t="n">
-        <v>239.9068700230515</v>
+        <v>239.9068700230494</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>295.8671282440222</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -23108,16 +23108,16 @@
         <v>94.13938596491228</v>
       </c>
       <c r="E9" t="n">
-        <v>93.17921052631581</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>82.55</v>
       </c>
       <c r="G9" t="n">
-        <v>84.32851138425291</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>39.36037526809192</v>
+        <v>39.36037526809189</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -23150,22 +23150,22 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>59.05530966656966</v>
+        <v>59.05530966656959</v>
       </c>
       <c r="T9" t="n">
-        <v>23.17061492955976</v>
+        <v>81.59442629766427</v>
       </c>
       <c r="U9" t="n">
         <v>174.5598441976481</v>
       </c>
       <c r="V9" t="n">
-        <v>78.04243221616041</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W9" t="n">
-        <v>64.38561618167769</v>
+        <v>64.38561618167556</v>
       </c>
       <c r="X9" t="n">
-        <v>34.23485086104857</v>
+        <v>34.23485086104644</v>
       </c>
       <c r="Y9" t="n">
         <v>125.2209214285714</v>
@@ -23184,13 +23184,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>45.1353023280323</v>
+        <v>72.89173304085571</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>48.97651316930775</v>
       </c>
       <c r="F10" t="n">
-        <v>55.8560729554011</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>163.7654023385416</v>
@@ -23199,7 +23199,7 @@
         <v>136.9920546719889</v>
       </c>
       <c r="I10" t="n">
-        <v>82.66219243742793</v>
+        <v>82.66219243742783</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,19 +23226,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>13.56162857616411</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>154.6870177308997</v>
+        <v>35.60310718843728</v>
       </c>
       <c r="T10" t="n">
-        <v>137.8053513118229</v>
+        <v>123.6105491751594</v>
       </c>
       <c r="U10" t="n">
         <v>275.6394002001954</v>
       </c>
       <c r="V10" t="n">
-        <v>165.0020425058136</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -23260,22 +23260,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>90.87967246293493</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>266.1862578322753</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -23326,7 +23326,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23421,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>45.87173929355905</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>113.269380871447</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>163.0937685836068</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23494,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>217.1939706653095</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>217.2618139512551</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>267.0243359415286</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>40.06170608735101</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23655,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>42.32586034702265</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23703,10 +23703,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>202.141835304533</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23734,16 +23734,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>312.6510955910886</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>300.5332114785141</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>75.05377899077628</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>256.7260822018283</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>245.8919113014646</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>163.9720346374403</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -24129,22 +24129,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>152.2554364750576</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>131.0206200144772</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>207.806863138691</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24214,16 +24214,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>130.9413785502862</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,19 +24256,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>254.1315849470527</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
         <v>414.9510387864824</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>140.4092215608039</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24426,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>202.1418353045331</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24448,19 +24448,19 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>95.07799832448967</v>
       </c>
       <c r="G26" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>110.3230468420996</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
         <v>404.2032624633431</v>
@@ -24603,22 +24603,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>114.8692533779059</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H28" t="n">
-        <v>70.08712386261249</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I28" t="n">
         <v>62.46433369811443</v>
@@ -24685,7 +24685,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>300.5332114785135</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24694,10 +24694,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>238.8063753078885</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.06170608735099</v>
+        <v>40.06170608735098</v>
       </c>
       <c r="T29" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>256.4799845637012</v>
@@ -24745,7 +24745,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
         <v>404.2032624633431</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24852,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>113.7438090910202</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>62.46433369811443</v>
@@ -24888,13 +24888,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>113.269380871446</v>
       </c>
     </row>
     <row r="32">
@@ -24922,16 +24922,16 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>230.8524912134881</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>251.5206568812826</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>267.0243359415286</v>
@@ -24979,7 +24979,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>114.8692533779059</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>114.8692533779063</v>
       </c>
       <c r="G34" t="n">
         <v>163.0937685836068</v>
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>91.82481136987246</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
         <v>429.4369973932878</v>
@@ -25168,7 +25168,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>267.0243359415286</v>
@@ -25207,22 +25207,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>26.78865556848183</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>13.06011950492436</v>
+        <v>114.8692533779059</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>337.7694672588496</v>
       </c>
       <c r="Y38" t="n">
-        <v>62.30745666034863</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>70.94988989452186</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25560,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,10 +25602,10 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T40" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>169.1588901203629</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>3.9956094041857</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -25639,10 +25639,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>267.0243359415286</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>218.7461511801359</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25791,7 +25791,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>73.928334703891</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>107.1269275599054</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>403.0885269725929</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>74.23959335657327</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T44" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -26025,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>48.85018410292825</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
         <v>62.46433369811443</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>257.8515264887133</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>92091.75940294388</v>
+        <v>92091.75940294554</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>410913.2591799872</v>
+        <v>410913.2591799871</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>410913.2591799872</v>
+        <v>410913.2591799871</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>410913.2591799871</v>
+        <v>410913.2591799872</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>410913.2591799872</v>
+        <v>410913.2591799871</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>410913.259179987</v>
+        <v>410913.2591799872</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>410913.2591799871</v>
+        <v>410913.2591799872</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>410913.2591799872</v>
+        <v>410913.2591799871</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>410913.2591799871</v>
+        <v>410913.2591799872</v>
       </c>
     </row>
   </sheetData>
@@ -26319,13 +26319,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>32959.20567922355</v>
+        <v>32959.20567922414</v>
       </c>
       <c r="E2" t="n">
         <v>149432.6927357765</v>
       </c>
       <c r="F2" t="n">
-        <v>149432.6927357765</v>
+        <v>149432.6927357764</v>
       </c>
       <c r="G2" t="n">
         <v>149432.6927357764</v>
@@ -26346,10 +26346,10 @@
         <v>149432.6927357765</v>
       </c>
       <c r="M2" t="n">
-        <v>149432.6927357764</v>
+        <v>149432.6927357765</v>
       </c>
       <c r="N2" t="n">
-        <v>149432.6927357764</v>
+        <v>149432.6927357765</v>
       </c>
       <c r="O2" t="n">
         <v>149432.6927357765</v>
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>117708.4675730572</v>
+        <v>117708.4675730593</v>
       </c>
       <c r="E3" t="n">
-        <v>439858.245018045</v>
+        <v>439858.2450180428</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>30139.0660031018</v>
+        <v>30139.06600310231</v>
       </c>
       <c r="M3" t="n">
-        <v>117374.5815597481</v>
+        <v>117374.5815597476</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,10 +26423,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>3725.576373221924</v>
+        <v>3725.576373221992</v>
       </c>
       <c r="E4" t="n">
-        <v>10272.22173839659</v>
+        <v>10272.22173839658</v>
       </c>
       <c r="F4" t="n">
         <v>10272.22173839659</v>
@@ -26438,7 +26438,7 @@
         <v>10272.22173839659</v>
       </c>
       <c r="I4" t="n">
-        <v>10272.22173839659</v>
+        <v>10272.22173839658</v>
       </c>
       <c r="J4" t="n">
         <v>10272.22173839659</v>
@@ -26447,19 +26447,19 @@
         <v>10272.22173839659</v>
       </c>
       <c r="L4" t="n">
-        <v>10272.22173839659</v>
+        <v>10272.22173839658</v>
       </c>
       <c r="M4" t="n">
         <v>10272.22173839658</v>
       </c>
       <c r="N4" t="n">
-        <v>10272.22173839658</v>
+        <v>10272.22173839659</v>
       </c>
       <c r="O4" t="n">
-        <v>10272.22173839658</v>
+        <v>10272.22173839659</v>
       </c>
       <c r="P4" t="n">
-        <v>10272.22173839658</v>
+        <v>10272.22173839659</v>
       </c>
     </row>
     <row r="5">
@@ -26475,22 +26475,22 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>42922.56227239232</v>
+        <v>42922.56227239248</v>
       </c>
       <c r="E5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="F5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.0812096378</v>
       </c>
       <c r="G5" t="n">
         <v>46051.08120963781</v>
       </c>
       <c r="H5" t="n">
-        <v>46051.08120963783</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="I5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="J5" t="n">
         <v>46051.08120963782</v>
@@ -26499,19 +26499,19 @@
         <v>46051.08120963782</v>
       </c>
       <c r="L5" t="n">
+        <v>46051.08120963781</v>
+      </c>
+      <c r="M5" t="n">
         <v>46051.08120963782</v>
       </c>
-      <c r="M5" t="n">
-        <v>46051.08120963781</v>
-      </c>
       <c r="N5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="O5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="P5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="D6" t="n">
-        <v>-131397.4005394479</v>
+        <v>-132564.2993356008</v>
       </c>
       <c r="E6" t="n">
-        <v>-346748.8552303028</v>
+        <v>-347302.7356735226</v>
       </c>
       <c r="F6" t="n">
-        <v>93109.38978774207</v>
+        <v>92555.50934452009</v>
       </c>
       <c r="G6" t="n">
-        <v>93109.38978774202</v>
+        <v>92555.50934452009</v>
       </c>
       <c r="H6" t="n">
-        <v>93109.38978774208</v>
+        <v>92555.50934452015</v>
       </c>
       <c r="I6" t="n">
-        <v>93109.38978774205</v>
+        <v>92555.50934452015</v>
       </c>
       <c r="J6" t="n">
-        <v>93109.38978774208</v>
+        <v>92555.50934452013</v>
       </c>
       <c r="K6" t="n">
-        <v>93109.38978774205</v>
+        <v>92555.50934452013</v>
       </c>
       <c r="L6" t="n">
-        <v>62970.32378464026</v>
+        <v>62416.44334141781</v>
       </c>
       <c r="M6" t="n">
-        <v>-24265.19177200609</v>
+        <v>-24819.0722152275</v>
       </c>
       <c r="N6" t="n">
-        <v>93109.38978774201</v>
+        <v>92555.50934452011</v>
       </c>
       <c r="O6" t="n">
-        <v>93109.38978774205</v>
+        <v>92555.50934452016</v>
       </c>
       <c r="P6" t="n">
-        <v>93109.38978774205</v>
+        <v>92555.50934452016</v>
       </c>
     </row>
   </sheetData>
@@ -26743,19 +26743,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>94.2504821748042</v>
+        <v>94.2504821748059</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="F3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.701928093221</v>
       </c>
       <c r="G3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="H3" t="n">
-        <v>466.7019280932213</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="I3" t="n">
         <v>466.7019280932212</v>
@@ -26770,16 +26770,16 @@
         <v>466.7019280932212</v>
       </c>
       <c r="M3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="N3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="O3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="P3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
     </row>
     <row r="4">
@@ -26795,22 +26795,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>119.0839105424602</v>
+        <v>119.0839105424624</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="F4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="G4" t="n">
+        <v>590.081894361934</v>
+      </c>
+      <c r="H4" t="n">
         <v>590.0818943619341</v>
       </c>
-      <c r="H4" t="n">
-        <v>590.0818943619344</v>
-      </c>
       <c r="I4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="J4" t="n">
         <v>590.0818943619342</v>
@@ -26819,19 +26819,19 @@
         <v>590.0818943619342</v>
       </c>
       <c r="L4" t="n">
+        <v>590.0818943619341</v>
+      </c>
+      <c r="M4" t="n">
         <v>590.0818943619342</v>
       </c>
-      <c r="M4" t="n">
-        <v>590.0818943619339</v>
-      </c>
       <c r="N4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="O4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="P4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
     </row>
   </sheetData>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>94.2504821748042</v>
+        <v>94.2504821748059</v>
       </c>
       <c r="E3" t="n">
-        <v>372.451445918417</v>
+        <v>372.4514459184152</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>119.0839105424602</v>
+        <v>119.0839105424624</v>
       </c>
       <c r="E4" t="n">
-        <v>470.997983819474</v>
+        <v>470.9979838194716</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>119.0839105424602</v>
+        <v>119.0839105424622</v>
       </c>
       <c r="M4" t="n">
-        <v>470.9979838194737</v>
+        <v>470.9979838194718</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>119.0839105424602</v>
+        <v>119.0839105424624</v>
       </c>
       <c r="M4" t="n">
-        <v>470.997983819474</v>
+        <v>470.9979838194716</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3788964107529814</v>
+        <v>0.3788964107529882</v>
       </c>
       <c r="H8" t="n">
-        <v>3.880372866623972</v>
+        <v>3.880372866624042</v>
       </c>
       <c r="I8" t="n">
-        <v>14.60740387555433</v>
+        <v>14.60740387555459</v>
       </c>
       <c r="J8" t="n">
-        <v>32.15835924214588</v>
+        <v>32.15835924214647</v>
       </c>
       <c r="K8" t="n">
-        <v>48.1970443093196</v>
+        <v>48.19704430932047</v>
       </c>
       <c r="L8" t="n">
-        <v>59.79269533990117</v>
+        <v>59.79269533990225</v>
       </c>
       <c r="M8" t="n">
-        <v>66.53089438462951</v>
+        <v>66.5308943846307</v>
       </c>
       <c r="N8" t="n">
-        <v>67.60743381168142</v>
+        <v>67.60743381168263</v>
       </c>
       <c r="O8" t="n">
-        <v>63.83978262725645</v>
+        <v>63.8397826272576</v>
       </c>
       <c r="P8" t="n">
-        <v>54.48577748679222</v>
+        <v>54.48577748679319</v>
       </c>
       <c r="Q8" t="n">
-        <v>40.91654977670105</v>
+        <v>40.91654977670179</v>
       </c>
       <c r="R8" t="n">
-        <v>23.80085166196199</v>
+        <v>23.80085166196242</v>
       </c>
       <c r="S8" t="n">
-        <v>8.634101960033574</v>
+        <v>8.634101960033728</v>
       </c>
       <c r="T8" t="n">
-        <v>1.658619038071177</v>
+        <v>1.658619038071207</v>
       </c>
       <c r="U8" t="n">
-        <v>0.03031171286023851</v>
+        <v>0.03031171286023905</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2027274522250506</v>
+        <v>0.2027274522250542</v>
       </c>
       <c r="H9" t="n">
-        <v>1.957920393857725</v>
+        <v>1.957920393857761</v>
       </c>
       <c r="I9" t="n">
-        <v>6.979870613888803</v>
+        <v>6.979870613888928</v>
       </c>
       <c r="J9" t="n">
-        <v>19.1532984578062</v>
+        <v>19.15329845780655</v>
       </c>
       <c r="K9" t="n">
-        <v>32.73603775688459</v>
+        <v>32.73603775688518</v>
       </c>
       <c r="L9" t="n">
-        <v>44.01764264211021</v>
+        <v>44.01764264211101</v>
       </c>
       <c r="M9" t="n">
-        <v>51.36651278526828</v>
+        <v>51.36651278526921</v>
       </c>
       <c r="N9" t="n">
-        <v>52.72603153286524</v>
+        <v>52.72603153286618</v>
       </c>
       <c r="O9" t="n">
-        <v>48.23401798619437</v>
+        <v>48.23401798619524</v>
       </c>
       <c r="P9" t="n">
-        <v>38.71205182006251</v>
+        <v>38.7120518200632</v>
       </c>
       <c r="Q9" t="n">
-        <v>25.87798144542926</v>
+        <v>25.87798144542973</v>
       </c>
       <c r="R9" t="n">
-        <v>12.58688514779744</v>
+        <v>12.58688514779767</v>
       </c>
       <c r="S9" t="n">
-        <v>3.76557350953109</v>
+        <v>3.765573509531158</v>
       </c>
       <c r="T9" t="n">
-        <v>0.8171338973457078</v>
+        <v>0.8171338973457225</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01333733238322702</v>
+        <v>0.01333733238322726</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1699598858889912</v>
+        <v>0.1699598858889942</v>
       </c>
       <c r="H10" t="n">
-        <v>1.511097894540304</v>
+        <v>1.511097894540331</v>
       </c>
       <c r="I10" t="n">
-        <v>5.111157295643482</v>
+        <v>5.111157295643573</v>
       </c>
       <c r="J10" t="n">
-        <v>12.01616393235168</v>
+        <v>12.01616393235189</v>
       </c>
       <c r="K10" t="n">
-        <v>19.74624856055733</v>
+        <v>19.74624856055769</v>
       </c>
       <c r="L10" t="n">
-        <v>25.26839976207784</v>
+        <v>25.26839976207829</v>
       </c>
       <c r="M10" t="n">
-        <v>26.64198465803522</v>
+        <v>26.6419846580357</v>
       </c>
       <c r="N10" t="n">
-        <v>26.00849781063082</v>
+        <v>26.00849781063129</v>
       </c>
       <c r="O10" t="n">
-        <v>24.02305732547305</v>
+        <v>24.02305732547348</v>
       </c>
       <c r="P10" t="n">
-        <v>20.55587565333762</v>
+        <v>20.55587565333798</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.23182280839544</v>
+        <v>14.23182280839569</v>
       </c>
       <c r="R10" t="n">
-        <v>7.642014505517729</v>
+        <v>7.642014505517865</v>
       </c>
       <c r="S10" t="n">
-        <v>2.9619372840836</v>
+        <v>2.961937284083653</v>
       </c>
       <c r="T10" t="n">
-        <v>0.7261922397075076</v>
+        <v>0.7261922397075206</v>
       </c>
       <c r="U10" t="n">
-        <v>0.009270539230308621</v>
+        <v>0.009270539230308787</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31758,28 +31758,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I11" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -31791,7 +31791,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T11" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U11" t="n">
         <v>0.1500950924520911</v>
@@ -31834,13 +31834,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H12" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I12" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
@@ -31852,25 +31852,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S12" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T12" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U12" t="n">
         <v>0.06604272567356906</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I13" t="n">
         <v>25.30901603495698</v>
@@ -31922,7 +31922,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L13" t="n">
         <v>125.1220218366646</v>
@@ -31946,10 +31946,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S13" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T13" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U13" t="n">
         <v>0.04590510768130049</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H14" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J14" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184534</v>
       </c>
       <c r="Q14" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R14" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S14" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065035</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112861</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,46 +32071,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879932</v>
       </c>
       <c r="I15" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K15" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L15" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002368</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S15" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T15" t="n">
-        <v>4.046217659600662</v>
+        <v>4.04621765960066</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.841593640823841</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051974</v>
       </c>
       <c r="I16" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495697</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L16" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M16" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O16" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P16" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207636</v>
       </c>
       <c r="R16" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195197</v>
       </c>
       <c r="S16" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T16" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701865</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130047</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H17" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q17" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R17" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S17" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,46 +32308,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I18" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K18" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L18" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S18" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I19" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L19" t="n">
         <v>125.1220218366646</v>
@@ -32405,28 +32405,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O19" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P19" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R19" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S19" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T19" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,31 +32466,31 @@
         <v>1.876188655651139</v>
       </c>
       <c r="H20" t="n">
-        <v>19.21451706968724</v>
+        <v>19.21451706968723</v>
       </c>
       <c r="I20" t="n">
-        <v>72.33176314699062</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J20" t="n">
-        <v>159.2391669125711</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816034</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
@@ -32499,10 +32499,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S20" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T20" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U20" t="n">
         <v>0.1500950924520911</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.00384943023825</v>
+        <v>1.003849430238249</v>
       </c>
       <c r="H21" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562341</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L21" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233626</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S21" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T21" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,25 +32621,25 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8415936408238416</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H22" t="n">
-        <v>7.482532552051978</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I22" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J22" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L22" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M22" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
         <v>128.7867795998885</v>
@@ -32651,19 +32651,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R22" t="n">
-        <v>37.841110431952</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S22" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T22" t="n">
-        <v>3.595900101701868</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32958,7 +32958,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N26" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994722</v>
       </c>
       <c r="O26" t="n">
         <v>316.1166813548411</v>
@@ -32973,10 +32973,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S26" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065038</v>
       </c>
       <c r="T26" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112867</v>
       </c>
       <c r="U26" t="n">
         <v>0.1500950924520911</v>
@@ -33019,10 +33019,10 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H27" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879938</v>
       </c>
       <c r="I27" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J27" t="n">
         <v>94.84175691562339</v>
@@ -33031,7 +33031,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L27" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M27" t="n">
         <v>254.3525508108055</v>
@@ -33040,7 +33040,7 @@
         <v>261.0845059811314</v>
       </c>
       <c r="O27" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P27" t="n">
         <v>191.6912126917233</v>
@@ -33049,16 +33049,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233625</v>
       </c>
       <c r="S27" t="n">
-        <v>18.64606288183764</v>
+        <v>18.64606288183765</v>
       </c>
       <c r="T27" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356907</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,25 +33095,25 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238415</v>
       </c>
       <c r="H28" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I28" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495699</v>
       </c>
       <c r="J28" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624559</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116992</v>
       </c>
       <c r="L28" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M28" t="n">
-        <v>131.9236286247772</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N28" t="n">
         <v>128.7867795998885</v>
@@ -33125,10 +33125,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.47199114207639</v>
+        <v>70.4719911420764</v>
       </c>
       <c r="R28" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195199</v>
       </c>
       <c r="S28" t="n">
         <v>14.66668190417549</v>
@@ -33137,7 +33137,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.0459051076813005</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33195,7 +33195,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N29" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994722</v>
       </c>
       <c r="O29" t="n">
         <v>316.1166813548411</v>
@@ -33210,10 +33210,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S29" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065038</v>
       </c>
       <c r="T29" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112867</v>
       </c>
       <c r="U29" t="n">
         <v>0.1500950924520911</v>
@@ -33256,10 +33256,10 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H30" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879938</v>
       </c>
       <c r="I30" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J30" t="n">
         <v>94.84175691562339</v>
@@ -33268,7 +33268,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L30" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M30" t="n">
         <v>254.3525508108055</v>
@@ -33286,16 +33286,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233625</v>
       </c>
       <c r="S30" t="n">
-        <v>18.64606288183764</v>
+        <v>18.64606288183765</v>
       </c>
       <c r="T30" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356907</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,25 +33332,25 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238415</v>
       </c>
       <c r="H31" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I31" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495699</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624559</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116992</v>
       </c>
       <c r="L31" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M31" t="n">
-        <v>131.9236286247772</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N31" t="n">
         <v>128.7867795998885</v>
@@ -33362,10 +33362,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.47199114207639</v>
+        <v>70.4719911420764</v>
       </c>
       <c r="R31" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195199</v>
       </c>
       <c r="S31" t="n">
         <v>14.66668190417549</v>
@@ -33374,7 +33374,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.0459051076813005</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33432,7 +33432,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N32" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994722</v>
       </c>
       <c r="O32" t="n">
         <v>316.1166813548411</v>
@@ -33447,10 +33447,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S32" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065038</v>
       </c>
       <c r="T32" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112867</v>
       </c>
       <c r="U32" t="n">
         <v>0.1500950924520911</v>
@@ -33493,10 +33493,10 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H33" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879938</v>
       </c>
       <c r="I33" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J33" t="n">
         <v>94.84175691562339</v>
@@ -33505,7 +33505,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L33" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M33" t="n">
         <v>254.3525508108055</v>
@@ -33523,16 +33523,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233625</v>
       </c>
       <c r="S33" t="n">
-        <v>18.64606288183764</v>
+        <v>18.64606288183765</v>
       </c>
       <c r="T33" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356907</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,25 +33569,25 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238415</v>
       </c>
       <c r="H34" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I34" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495699</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624559</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116992</v>
       </c>
       <c r="L34" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M34" t="n">
-        <v>131.9236286247772</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N34" t="n">
         <v>128.7867795998885</v>
@@ -33599,10 +33599,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.47199114207639</v>
+        <v>70.4719911420764</v>
       </c>
       <c r="R34" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195199</v>
       </c>
       <c r="S34" t="n">
         <v>14.66668190417549</v>
@@ -33611,7 +33611,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.0459051076813005</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H35" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I35" t="n">
-        <v>72.33176314699058</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J35" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N35" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994722</v>
       </c>
       <c r="O35" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q35" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R35" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S35" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065038</v>
       </c>
       <c r="T35" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112867</v>
       </c>
       <c r="U35" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,46 +33730,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H36" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879938</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K36" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L36" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M36" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N36" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O36" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P36" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q36" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233625</v>
       </c>
       <c r="S36" t="n">
-        <v>18.64606288183764</v>
+        <v>18.64606288183765</v>
       </c>
       <c r="T36" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356907</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238415</v>
       </c>
       <c r="H37" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I37" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495699</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624559</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116992</v>
       </c>
       <c r="L37" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M37" t="n">
-        <v>131.9236286247772</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N37" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O37" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P37" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.47199114207638</v>
+        <v>70.4719911420764</v>
       </c>
       <c r="R37" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195199</v>
       </c>
       <c r="S37" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T37" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.0459051076813005</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H38" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I38" t="n">
-        <v>72.33176314699058</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J38" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N38" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994722</v>
       </c>
       <c r="O38" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q38" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R38" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S38" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065038</v>
       </c>
       <c r="T38" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112867</v>
       </c>
       <c r="U38" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,46 +33967,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H39" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879938</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K39" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L39" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M39" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N39" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O39" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P39" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q39" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233625</v>
       </c>
       <c r="S39" t="n">
-        <v>18.64606288183764</v>
+        <v>18.64606288183765</v>
       </c>
       <c r="T39" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356907</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238415</v>
       </c>
       <c r="H40" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I40" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495699</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624559</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116992</v>
       </c>
       <c r="L40" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M40" t="n">
-        <v>131.9236286247772</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N40" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O40" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P40" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.47199114207638</v>
+        <v>70.4719911420764</v>
       </c>
       <c r="R40" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195199</v>
       </c>
       <c r="S40" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T40" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.0459051076813005</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H41" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I41" t="n">
-        <v>72.33176314699058</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J41" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N41" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q41" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R41" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S41" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T41" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U41" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,46 +34204,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H42" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K42" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L42" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M42" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N42" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O42" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P42" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q42" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S42" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T42" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H43" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I43" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J43" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L43" t="n">
         <v>125.1220218366646</v>
@@ -34301,28 +34301,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O43" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P43" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R43" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S43" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T43" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34365,28 +34365,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I44" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J44" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N44" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q44" t="n">
         <v>202.6072676879471</v>
@@ -34398,7 +34398,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T44" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U44" t="n">
         <v>0.1500950924520911</v>
@@ -34441,13 +34441,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H45" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I45" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K45" t="n">
         <v>162.0996687415861</v>
@@ -34459,25 +34459,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O45" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q45" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S45" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T45" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U45" t="n">
         <v>0.06604272567356906</v>
@@ -34517,10 +34517,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H46" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I46" t="n">
         <v>25.30901603495698</v>
@@ -34529,7 +34529,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L46" t="n">
         <v>125.1220218366646</v>
@@ -34553,10 +34553,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S46" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T46" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U46" t="n">
         <v>0.04590510768130049</v>
@@ -35169,34 +35169,34 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>14.19478239642293</v>
+        <v>14.1947823964232</v>
       </c>
       <c r="J8" t="n">
-        <v>32.15835924214588</v>
+        <v>32.15835924214647</v>
       </c>
       <c r="K8" t="n">
-        <v>48.1970443093196</v>
+        <v>48.19704430932046</v>
       </c>
       <c r="L8" t="n">
-        <v>59.79269533990117</v>
+        <v>59.79269533990225</v>
       </c>
       <c r="M8" t="n">
-        <v>66.53089438462951</v>
+        <v>66.53089438463073</v>
       </c>
       <c r="N8" t="n">
-        <v>67.6074338116814</v>
+        <v>67.60743381168263</v>
       </c>
       <c r="O8" t="n">
-        <v>63.83978262725645</v>
+        <v>63.83978262725759</v>
       </c>
       <c r="P8" t="n">
-        <v>54.48577748679219</v>
+        <v>54.48577748679327</v>
       </c>
       <c r="Q8" t="n">
-        <v>40.91654977670106</v>
+        <v>40.9165497767018</v>
       </c>
       <c r="R8" t="n">
-        <v>23.80085166196199</v>
+        <v>23.80085166196233</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>33.30681320020961</v>
+        <v>6.979870613888929</v>
       </c>
       <c r="J9" t="n">
-        <v>64.24279896279873</v>
+        <v>51.79011391164964</v>
       </c>
       <c r="K9" t="n">
-        <v>32.7360377568846</v>
+        <v>32.73603775688518</v>
       </c>
       <c r="L9" t="n">
-        <v>44.01764264211022</v>
+        <v>44.01764264211101</v>
       </c>
       <c r="M9" t="n">
-        <v>119.0839105424602</v>
+        <v>51.36651278526921</v>
       </c>
       <c r="N9" t="n">
-        <v>52.72603153286525</v>
+        <v>52.72603153286619</v>
       </c>
       <c r="O9" t="n">
-        <v>48.23401798619437</v>
+        <v>48.23401798619523</v>
       </c>
       <c r="P9" t="n">
-        <v>38.71205182006253</v>
+        <v>38.71205182006321</v>
       </c>
       <c r="Q9" t="n">
-        <v>25.87798144542927</v>
+        <v>25.87798144542973</v>
       </c>
       <c r="R9" t="n">
-        <v>12.58688514779743</v>
+        <v>119.0839105424624</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>99.47039137143234</v>
+        <v>29.62932605697102</v>
       </c>
       <c r="K10" t="n">
-        <v>19.74624856055735</v>
+        <v>19.74624856055769</v>
       </c>
       <c r="L10" t="n">
-        <v>25.26839976207785</v>
+        <v>119.0839105424624</v>
       </c>
       <c r="M10" t="n">
-        <v>44.29237727901355</v>
+        <v>26.64198465803571</v>
       </c>
       <c r="N10" t="n">
-        <v>119.0839105424602</v>
+        <v>119.0839105424624</v>
       </c>
       <c r="O10" t="n">
-        <v>24.02305732547308</v>
+        <v>24.02305732547347</v>
       </c>
       <c r="P10" t="n">
-        <v>20.55587565333764</v>
+        <v>119.0839105424624</v>
       </c>
       <c r="Q10" t="n">
-        <v>119.0839105424602</v>
+        <v>14.23182280839569</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,28 +35406,28 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J11" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
@@ -35573,22 +35573,22 @@
         <v>97.77787936116989</v>
       </c>
       <c r="L13" t="n">
-        <v>125.1220218366646</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M13" t="n">
-        <v>225.903561167561</v>
+        <v>590.0818943619339</v>
       </c>
       <c r="N13" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O13" t="n">
-        <v>542.8637682561043</v>
+        <v>277.1599674523491</v>
       </c>
       <c r="P13" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q13" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R13" t="n">
         <v>16.63746735027015</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J14" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
         <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994719</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q14" t="n">
-        <v>202.6072676879476</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R14" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.8417569156242</v>
       </c>
       <c r="K15" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L15" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N15" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P15" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002367</v>
       </c>
       <c r="R15" t="n">
         <v>62.32672164233622</v>
@@ -35804,31 +35804,31 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K16" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L16" t="n">
-        <v>193.6987971192212</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M16" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O16" t="n">
-        <v>542.8637682561041</v>
+        <v>296.1475206512691</v>
       </c>
       <c r="P16" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q16" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R16" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027013</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35880,28 +35880,28 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816031</v>
       </c>
       <c r="N17" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916797</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K18" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L18" t="n">
         <v>217.963008964669</v>
@@ -36041,31 +36041,31 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116991</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L19" t="n">
-        <v>547.5562458447062</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M19" t="n">
-        <v>131.9236286247772</v>
+        <v>309.1157135712365</v>
       </c>
       <c r="N19" t="n">
-        <v>416.9502437123842</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O19" t="n">
-        <v>542.8637682561043</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P19" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R19" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>71.91914166785922</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J20" t="n">
         <v>159.2391669125709</v>
@@ -36126,10 +36126,10 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916774</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562342</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K21" t="n">
-        <v>162.0996687415861</v>
+        <v>162.0996687415862</v>
       </c>
       <c r="L21" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P21" t="n">
         <v>191.6912126917234</v>
@@ -36278,31 +36278,31 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624559</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116994</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L22" t="n">
-        <v>281.8524450409518</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M22" t="n">
-        <v>590.0818943619344</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N22" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O22" t="n">
-        <v>542.8637682561043</v>
+        <v>260.4234789221541</v>
       </c>
       <c r="P22" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R22" t="n">
-        <v>16.63746735027016</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J23" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K23" t="n">
         <v>238.6582327062838</v>
@@ -36366,7 +36366,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N23" t="n">
         <v>334.7730322994721</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916792</v>
+        <v>34.56235976916782</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562325</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K24" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L24" t="n">
         <v>217.963008964669</v>
@@ -36448,13 +36448,13 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O24" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P24" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q24" t="n">
         <v>128.1404992002369</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L25" t="n">
-        <v>170.881065874915</v>
+        <v>281.852445040951</v>
       </c>
       <c r="M25" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N25" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O25" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P25" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q25" t="n">
-        <v>240.3636829242305</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R25" t="n">
         <v>16.63746735027015</v>
@@ -36600,10 +36600,10 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N26" t="n">
         <v>334.7730322994721</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>146.9548978453263</v>
+        <v>59.5006704062456</v>
       </c>
       <c r="K28" t="n">
-        <v>167.0540751263759</v>
+        <v>254.5083025654566</v>
       </c>
       <c r="L28" t="n">
         <v>125.1220218366646</v>
@@ -36840,7 +36840,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N29" t="n">
         <v>334.7730322994721</v>
@@ -36849,10 +36849,10 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184538</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q29" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R29" t="n">
         <v>117.855135640546</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116989</v>
+        <v>375.3116718572665</v>
       </c>
       <c r="L31" t="n">
-        <v>281.8524450409513</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M31" t="n">
         <v>590.0818943619342</v>
       </c>
       <c r="N31" t="n">
-        <v>575.5128433954892</v>
+        <v>198.8376634256979</v>
       </c>
       <c r="O31" t="n">
-        <v>542.8637682561043</v>
+        <v>118.95543570481</v>
       </c>
       <c r="P31" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R31" t="n">
         <v>16.63746735027015</v>
@@ -37068,10 +37068,10 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J32" t="n">
-        <v>159.2391669125714</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
-        <v>238.658232706284</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L32" t="n">
         <v>296.0766412766675</v>
@@ -37089,7 +37089,7 @@
         <v>269.7982739184536</v>
       </c>
       <c r="Q32" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R32" t="n">
         <v>117.855135640546</v>
@@ -37147,7 +37147,7 @@
         <v>34.56235976916781</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K33" t="n">
         <v>162.0996687415861</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K34" t="n">
-        <v>375.3116718572664</v>
+        <v>167.0540751263756</v>
       </c>
       <c r="L34" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M34" t="n">
-        <v>309.1157135712369</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N34" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O34" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P34" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q34" t="n">
-        <v>240.3636829242305</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R34" t="n">
         <v>16.63746735027015</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J35" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766676</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816027</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N35" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
         <v>316.1166813548409</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q35" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R35" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405465</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916776</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K36" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L36" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M36" t="n">
         <v>254.3525508108055</v>
@@ -37399,16 +37399,16 @@
         <v>261.0845059811313</v>
       </c>
       <c r="O36" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P36" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q36" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.326721642336</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,31 +37463,31 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>146.9548978453263</v>
+        <v>59.5006704062456</v>
       </c>
       <c r="K37" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116994</v>
       </c>
       <c r="L37" t="n">
-        <v>547.556245844706</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M37" t="n">
-        <v>309.1157135712356</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N37" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O37" t="n">
-        <v>118.9554357048098</v>
+        <v>277.1599674523495</v>
       </c>
       <c r="P37" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
-        <v>240.3636829242305</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R37" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37539,25 +37539,25 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J38" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062839</v>
       </c>
       <c r="L38" t="n">
         <v>296.0766412766674</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816031</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N38" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>316.1166813548407</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P38" t="n">
         <v>269.7982739184536</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916797</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K39" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L39" t="n">
         <v>217.963008964669</v>
@@ -37700,31 +37700,31 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624556</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116988</v>
+        <v>167.0540751263759</v>
       </c>
       <c r="L40" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M40" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N40" t="n">
-        <v>575.5128433954891</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O40" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P40" t="n">
-        <v>294.2413903654051</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q40" t="n">
         <v>70.4719911420766</v>
       </c>
       <c r="R40" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37776,16 +37776,16 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J41" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M41" t="n">
         <v>329.4423112816032</v>
@@ -37794,16 +37794,16 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>316.1166813548407</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184538</v>
       </c>
       <c r="Q41" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R41" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916776</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K42" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L42" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M42" t="n">
         <v>254.3525508108055</v>
@@ -37873,16 +37873,16 @@
         <v>261.0845059811313</v>
       </c>
       <c r="O42" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P42" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q42" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L43" t="n">
-        <v>300.8399982398709</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M43" t="n">
-        <v>131.9236286247772</v>
+        <v>395.7952529497143</v>
       </c>
       <c r="N43" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O43" t="n">
         <v>542.8637682561043</v>
@@ -37958,10 +37958,10 @@
         <v>452.8039900485103</v>
       </c>
       <c r="Q43" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R43" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38013,16 +38013,16 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J44" t="n">
         <v>159.2391669125709</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M44" t="n">
         <v>329.4423112816032</v>
@@ -38034,13 +38034,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184538</v>
       </c>
       <c r="Q44" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R44" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916782</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562348</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K45" t="n">
         <v>162.0996687415861</v>
@@ -38104,10 +38104,10 @@
         <v>217.963008964669</v>
       </c>
       <c r="M45" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811317</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O45" t="n">
         <v>238.8413159742734</v>
@@ -38119,7 +38119,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>62.326721642336</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116991</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L46" t="n">
-        <v>547.5562458447062</v>
+        <v>266.5900650540092</v>
       </c>
       <c r="M46" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N46" t="n">
-        <v>247.0585519302304</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O46" t="n">
-        <v>542.8637682561043</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P46" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q46" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R46" t="n">
         <v>16.63746735027015</v>
